--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/COFORGE LIMITED Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/COFORGE LIMITED Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -672,7 +672,7 @@
         <v>53.9</v>
       </c>
       <c r="H2">
-        <v>38.73636363636363</v>
+        <v>38.74</v>
       </c>
       <c r="I2">
         <v>53.9</v>
@@ -708,7 +708,7 @@
         <v>96.97</v>
       </c>
       <c r="T2">
-        <v>90.68833333333333</v>
+        <v>90.69</v>
       </c>
       <c r="U2">
         <v>56.09</v>
@@ -717,7 +717,7 @@
         <v>157.14</v>
       </c>
       <c r="W2">
-        <v>101.3681818181818</v>
+        <v>101.37</v>
       </c>
       <c r="X2">
         <v>67.69</v>
@@ -729,7 +729,7 @@
         <v>40.12</v>
       </c>
       <c r="AA2">
-        <v>79.07437499999999</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="AB2">
         <v>135.6</v>
@@ -750,7 +750,7 @@
         <v>1.95</v>
       </c>
       <c r="AH2">
-        <v>19.42117647058824</v>
+        <v>19.42</v>
       </c>
       <c r="AI2">
         <v>96.97</v>
@@ -779,7 +779,7 @@
         <v>41.78</v>
       </c>
       <c r="H3">
-        <v>38.73636363636363</v>
+        <v>38.74</v>
       </c>
       <c r="I3">
         <v>41.78</v>
@@ -815,7 +815,7 @@
         <v>108.44</v>
       </c>
       <c r="T3">
-        <v>90.68833333333333</v>
+        <v>90.69</v>
       </c>
       <c r="U3">
         <v>56.09</v>
@@ -824,7 +824,7 @@
         <v>167.49</v>
       </c>
       <c r="W3">
-        <v>101.3681818181818</v>
+        <v>101.37</v>
       </c>
       <c r="X3">
         <v>69.18000000000001</v>
@@ -857,7 +857,7 @@
         <v>2.4</v>
       </c>
       <c r="AH3">
-        <v>19.42117647058824</v>
+        <v>19.42</v>
       </c>
       <c r="AI3">
         <v>108.44</v>
@@ -886,7 +886,7 @@
         <v>26.66</v>
       </c>
       <c r="H4">
-        <v>38.73636363636363</v>
+        <v>38.74</v>
       </c>
       <c r="I4">
         <v>28.51</v>
@@ -931,7 +931,7 @@
         <v>259.22</v>
       </c>
       <c r="W4">
-        <v>101.3681818181818</v>
+        <v>101.37</v>
       </c>
       <c r="X4">
         <v>102.17</v>
@@ -964,7 +964,7 @@
         <v>2.64</v>
       </c>
       <c r="AH4">
-        <v>19.42117647058824</v>
+        <v>19.42</v>
       </c>
       <c r="AI4">
         <v>196.7</v>
@@ -993,7 +993,7 @@
         <v>16.66</v>
       </c>
       <c r="H5">
-        <v>38.73636363636363</v>
+        <v>38.74</v>
       </c>
       <c r="I5">
         <v>19.76</v>
@@ -1038,7 +1038,7 @@
         <v>322.73</v>
       </c>
       <c r="W5">
-        <v>101.3681818181818</v>
+        <v>101.37</v>
       </c>
       <c r="X5">
         <v>111.15</v>
@@ -1050,7 +1050,7 @@
         <v>107.39</v>
       </c>
       <c r="AA5">
-        <v>79.07437499999999</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="AB5">
         <v>233.01</v>
@@ -1100,7 +1100,7 @@
         <v>0.87</v>
       </c>
       <c r="H6">
-        <v>38.73636363636363</v>
+        <v>38.74</v>
       </c>
       <c r="I6">
         <v>3.99</v>
@@ -1145,7 +1145,7 @@
         <v>358.79</v>
       </c>
       <c r="W6">
-        <v>101.3681818181818</v>
+        <v>101.37</v>
       </c>
       <c r="X6">
         <v>98.67</v>
@@ -1157,7 +1157,7 @@
         <v>101.18</v>
       </c>
       <c r="AA6">
-        <v>79.07437499999999</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="AB6">
         <v>250.67</v>
@@ -1207,7 +1207,7 @@
         <v>0.91</v>
       </c>
       <c r="H7">
-        <v>38.73636363636363</v>
+        <v>38.74</v>
       </c>
       <c r="I7">
         <v>1.75</v>
@@ -1252,7 +1252,7 @@
         <v>388.46</v>
       </c>
       <c r="W7">
-        <v>101.3681818181818</v>
+        <v>101.37</v>
       </c>
       <c r="X7">
         <v>101.23</v>
@@ -1264,7 +1264,7 @@
         <v>91.48999999999999</v>
       </c>
       <c r="AA7">
-        <v>79.07437499999999</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="AB7">
         <v>223.11</v>
@@ -1983,7 +1983,7 @@
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>37.95263157894737</v>
+        <v>37.95</v>
       </c>
       <c r="R14">
         <v>494.1</v>
@@ -2010,7 +2010,7 @@
         <v>59</v>
       </c>
       <c r="Z14">
-        <v>74.42416666666666</v>
+        <v>74.42</v>
       </c>
       <c r="AA14">
         <v>167.8</v>
@@ -2025,7 +2025,7 @@
         <v>33.4</v>
       </c>
       <c r="AE14">
-        <v>8.9975</v>
+        <v>9</v>
       </c>
       <c r="AF14">
         <v>570.2</v>
@@ -2117,7 +2117,7 @@
         <v>67.7</v>
       </c>
       <c r="Z15">
-        <v>74.42416666666666</v>
+        <v>74.42</v>
       </c>
       <c r="AA15">
         <v>132.1</v>
@@ -2132,7 +2132,7 @@
         <v>32.7</v>
       </c>
       <c r="AE15">
-        <v>8.9975</v>
+        <v>9</v>
       </c>
       <c r="AF15">
         <v>607</v>
@@ -2224,7 +2224,7 @@
         <v>139.4</v>
       </c>
       <c r="Z16">
-        <v>74.42416666666666</v>
+        <v>74.42</v>
       </c>
       <c r="AA16">
         <v>124.1</v>
@@ -2239,7 +2239,7 @@
         <v>63.3</v>
       </c>
       <c r="AE16">
-        <v>8.9975</v>
+        <v>9</v>
       </c>
       <c r="AF16">
         <v>873</v>
@@ -2331,7 +2331,7 @@
         <v>443.4</v>
       </c>
       <c r="Z17">
-        <v>74.42416666666666</v>
+        <v>74.42</v>
       </c>
       <c r="AA17">
         <v>103.6</v>
@@ -2346,7 +2346,7 @@
         <v>23.6</v>
       </c>
       <c r="AE17">
-        <v>8.9975</v>
+        <v>9</v>
       </c>
       <c r="AF17">
         <v>948.6</v>
@@ -2438,7 +2438,7 @@
         <v>402.3</v>
       </c>
       <c r="Z18">
-        <v>74.42416666666666</v>
+        <v>74.42</v>
       </c>
       <c r="AA18">
         <v>116.9</v>
@@ -2453,7 +2453,7 @@
         <v>40.8</v>
       </c>
       <c r="AE18">
-        <v>8.9975</v>
+        <v>9</v>
       </c>
       <c r="AF18">
         <v>971.7</v>
@@ -2491,7 +2491,7 @@
         <v>336.5</v>
       </c>
       <c r="H19">
-        <v>38.73636363636363</v>
+        <v>38.74</v>
       </c>
       <c r="I19">
         <v>424.5</v>
@@ -2503,7 +2503,7 @@
         <v>226.9</v>
       </c>
       <c r="L19">
-        <v>56.91647058823529</v>
+        <v>56.92</v>
       </c>
       <c r="M19">
         <v>610.3</v>
@@ -2536,7 +2536,7 @@
         <v>2607</v>
       </c>
       <c r="W19">
-        <v>101.3681818181818</v>
+        <v>101.37</v>
       </c>
       <c r="X19">
         <v>424.6</v>
@@ -2545,7 +2545,7 @@
         <v>62.4</v>
       </c>
       <c r="Z19">
-        <v>74.42416666666666</v>
+        <v>74.42</v>
       </c>
       <c r="AA19">
         <v>146.9</v>
@@ -2560,7 +2560,7 @@
         <v>127.5</v>
       </c>
       <c r="AE19">
-        <v>8.9975</v>
+        <v>9</v>
       </c>
       <c r="AF19">
         <v>1129.3</v>
@@ -2598,7 +2598,7 @@
         <v>338.2</v>
       </c>
       <c r="H20">
-        <v>38.73636363636363</v>
+        <v>38.74</v>
       </c>
       <c r="I20">
         <v>498.6</v>
@@ -2610,7 +2610,7 @@
         <v>330</v>
       </c>
       <c r="L20">
-        <v>56.91647058823529</v>
+        <v>56.92</v>
       </c>
       <c r="M20">
         <v>664.2</v>
@@ -2643,7 +2643,7 @@
         <v>2741.8</v>
       </c>
       <c r="W20">
-        <v>101.3681818181818</v>
+        <v>101.37</v>
       </c>
       <c r="X20">
         <v>783.6</v>
@@ -2652,7 +2652,7 @@
         <v>139.5</v>
       </c>
       <c r="Z20">
-        <v>74.42416666666666</v>
+        <v>74.42</v>
       </c>
       <c r="AA20">
         <v>113.2</v>
@@ -2667,7 +2667,7 @@
         <v>81.7</v>
       </c>
       <c r="AE20">
-        <v>8.9975</v>
+        <v>9</v>
       </c>
       <c r="AF20">
         <v>1129.3</v>
@@ -2705,7 +2705,7 @@
         <v>339.9</v>
       </c>
       <c r="H21">
-        <v>38.73636363636363</v>
+        <v>38.74</v>
       </c>
       <c r="I21">
         <v>532.1</v>
@@ -2717,7 +2717,7 @@
         <v>218</v>
       </c>
       <c r="L21">
-        <v>56.91647058823529</v>
+        <v>56.92</v>
       </c>
       <c r="M21">
         <v>640.5</v>
@@ -2750,7 +2750,7 @@
         <v>3329.5</v>
       </c>
       <c r="W21">
-        <v>101.3681818181818</v>
+        <v>101.37</v>
       </c>
       <c r="X21">
         <v>969.2</v>
@@ -2759,7 +2759,7 @@
         <v>45.3</v>
       </c>
       <c r="Z21">
-        <v>74.42416666666666</v>
+        <v>74.42</v>
       </c>
       <c r="AA21">
         <v>140.8</v>
@@ -2774,7 +2774,7 @@
         <v>101.8</v>
       </c>
       <c r="AE21">
-        <v>8.9975</v>
+        <v>9</v>
       </c>
       <c r="AF21">
         <v>1472.8</v>
